--- a/bh3/534539341761532990_2021-06-10_11-25-39.xlsx
+++ b/bh3/534539341761532990_2021-06-10_11-25-39.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -568,10 +584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-18 19:21:52</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44365.80685185185</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -663,10 +677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-17 12:35:43</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44364.52480324074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -744,10 +756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-06-16 15:31:19</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44363.64674768518</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -827,10 +837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-15 13:07:40</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44362.54699074074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -907,10 +915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-14 18:45:15</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44361.78142361111</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -974,10 +980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-06-13 22:00:03</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44360.91670138889</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1045,10 +1049,8 @@
           <t>4720430095</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-06-13 15:56:10</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44360.66400462963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1142,10 +1144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-06-13 15:52:35</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44360.66151620371</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1221,10 +1221,8 @@
           <t>4719996654</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-06-13 15:17:18</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44360.63701388889</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1288,10 +1286,8 @@
           <t>4719996654</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-06-13 14:28:23</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44360.60304398148</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1351,10 +1347,8 @@
           <t>4702637933</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-06-13 11:15:15</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44360.46892361111</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1432,10 +1426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-06-12 15:03:04</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44359.62712962963</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1511,10 +1503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-06-12 09:59:22</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44359.41622685185</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1574,10 +1564,8 @@
           <t>4708066983</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-06-11 13:02:33</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44358.5434375</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1641,10 +1629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-06-11 09:39:23</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44358.40234953703</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1718,10 +1704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-06-11 05:55:12</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44358.24666666667</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1793,10 +1777,8 @@
           <t>4704560902</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-06-11 03:47:33</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44358.15802083333</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1872,10 +1854,8 @@
           <t>4704560902</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-06-11 01:11:54</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44358.04993055556</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1942,10 +1922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-06-11 01:05:11</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44358.04526620371</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -2009,10 +1987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-06-11 00:49:40</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44358.03449074074</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2072,10 +2048,8 @@
           <t>4703741944</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-06-11 00:49:37</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44358.03445601852</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -2143,10 +2117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-06-10 23:15:35</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44357.96915509259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2218,10 +2190,8 @@
           <t>4704560902</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-06-10 22:04:16</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44357.91962962963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2289,10 +2259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-06-10 21:19:12</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44357.88833333334</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2362,10 +2330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-06-10 21:15:43</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44357.88591435185</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2433,10 +2399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-06-10 21:14:45</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44357.88524305556</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2506,10 +2470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-06-10 20:44:46</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44357.8644212963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2577,10 +2539,8 @@
           <t>4704560902</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-06-10 20:19:03</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44357.8465625</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2656,10 +2616,8 @@
           <t>4704560902</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-06-10 19:52:28</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44357.82810185185</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2727,10 +2685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-06-10 19:39:19</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44357.81896990741</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2790,10 +2746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-06-10 19:29:14</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44357.81196759259</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2877,10 +2831,8 @@
           <t>4702327437</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-06-10 19:14:53</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44357.80200231481</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2973,10 +2925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-06-10 18:39:26</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44357.77738425926</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3052,10 +3002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-06-10 18:35:41</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44357.77478009259</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -3131,10 +3079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-06-10 18:35:21</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44357.77454861111</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3210,10 +3156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-06-10 18:35:01</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44357.77431712963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3289,10 +3233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-06-10 18:34:43</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44357.77410879629</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3360,10 +3302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:58:10</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44357.74872685185</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3427,10 +3367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:57:44</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44357.74842592593</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3506,10 +3444,8 @@
           <t>4703397091</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:44:49</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44357.73945601852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3586,10 +3522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:40:22</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44357.73636574074</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3661,10 +3595,8 @@
           <t>4703803081</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:39:20</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44357.73564814815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3732,10 +3664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:35:21</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44357.73288194444</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3804,10 +3734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:31:49</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44357.73042824074</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3871,10 +3799,8 @@
           <t>4703739356</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:26:55</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44357.72702546296</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3938,10 +3864,8 @@
           <t>4703741944</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:26:09</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44357.72649305555</v>
       </c>
       <c r="I47" t="n">
         <v>3</v>
@@ -4013,10 +3937,8 @@
           <t>4702369549</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-06-10 17:19:05</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44357.72158564815</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4091,10 +4013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:51:00</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44357.70208333333</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4164,10 +4084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:48:41</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44357.70047453704</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4227,10 +4145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:48:31</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44357.7003587963</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4290,10 +4206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:29:55</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44357.68744212963</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4357,10 +4271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:27:40</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44357.68587962963</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4424,10 +4336,8 @@
           <t>4703392386</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:27:11</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44357.68554398148</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4503,10 +4413,8 @@
           <t>4703475566</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:26:52</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44357.68532407407</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -4584,10 +4492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:18:45</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44357.6796875</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4655,10 +4561,8 @@
           <t>4703440780</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:17:46</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44357.67900462963</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4737,10 +4641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:12:47</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44357.67554398148</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4800,10 +4702,8 @@
           <t>4703398496</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:08:52</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44357.67282407408</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4875,10 +4775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:08:39</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44357.67267361111</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4946,10 +4844,8 @@
           <t>4703397091</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:07:47</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44357.67207175926</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -5025,10 +4921,8 @@
           <t>4703392386</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:06:51</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44357.67142361111</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5100,10 +4994,8 @@
           <t>4702679581</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:01:47</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44357.6679050926</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5179,10 +5071,8 @@
           <t>4702761297</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:01:38</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44357.66780092593</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5258,10 +5148,8 @@
           <t>4702485867</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-06-10 16:01:32</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44357.66773148148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5341,10 +5229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-06-10 15:55:58</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44357.66386574074</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5420,10 +5306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-06-10 15:30:28</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44357.64615740741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5493,10 +5377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-06-10 15:28:35</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44357.64484953704</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5566,10 +5448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-06-10 15:24:27</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44357.64197916666</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5633,10 +5513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-06-10 15:04:00</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44357.62777777778</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5712,10 +5590,8 @@
           <t>4703130220</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:57:06</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44357.62298611111</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5787,10 +5663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:48:29</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44357.61700231482</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5876,10 +5750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:46:50</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44357.61585648148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5939,10 +5811,8 @@
           <t>4702369549</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:45:35</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44357.61498842593</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -6010,10 +5880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:43:11</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44357.61332175926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6077,10 +5945,8 @@
           <t>4703058943</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:39:47</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44357.61096064815</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6152,10 +6018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:36:01</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44357.60834490741</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6227,10 +6091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:25:27</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44357.60100694445</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6306,10 +6168,8 @@
           <t>4702967097</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:14:16</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44357.59324074074</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6393,10 +6253,8 @@
           <t>4702637933</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:13:04</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44357.59240740741</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6472,10 +6330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:08:21</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44357.58913194444</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6558,10 +6414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:03:29</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44357.58575231482</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6621,10 +6475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:02:32</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44357.58509259259</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6700,10 +6552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:01:21</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44357.58427083334</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6771,10 +6621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-06-10 14:00:16</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44357.58351851852</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6846,10 +6694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:51:34</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44357.57747685185</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6921,10 +6767,8 @@
           <t>4702443384</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:47:35</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44357.57471064815</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -7000,10 +6844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:47:28</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44357.57462962963</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -7075,10 +6917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:46:08</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44357.5737037037</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7146,10 +6986,8 @@
           <t>4702737302</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:43:04</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44357.57157407407</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7217,10 +7055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:42:50</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44357.57141203704</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7303,10 +7139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:40:20</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44357.56967592592</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7374,10 +7208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:39:04</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44357.5687962963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7445,10 +7277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:39:02</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44357.56877314814</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7524,10 +7354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:38:18</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44357.56826388889</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7595,10 +7423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:30:39</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44357.56295138889</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7674,10 +7500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:28:07</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44357.56119212963</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7749,10 +7573,8 @@
           <t>4702714514</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:27:06</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44357.56048611111</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7816,10 +7638,8 @@
           <t>4702761297</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:26:18</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44357.55993055556</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7887,10 +7707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:23:38</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44357.5580787037</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7966,10 +7784,8 @@
           <t>4702737302</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:21:03</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44357.55628472222</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -8040,10 +7856,8 @@
           <t>4702714514</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:17:03</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44357.55350694444</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8116,10 +7930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:16:48</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44357.55333333334</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8190,10 +8002,8 @@
           <t>4702642485</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:14:41</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44357.55186342593</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8261,10 +8071,8 @@
           <t>4702369549</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:12:08</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44357.5500925926</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8339,10 +8147,8 @@
           <t>4702695758</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:11:53</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44357.54991898148</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8413,10 +8219,8 @@
           <t>4702637933</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:11:08</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44357.54939814815</v>
       </c>
       <c r="I107" t="n">
         <v>5</v>
@@ -8480,10 +8284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:10:19</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44357.54883101852</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8547,10 +8349,8 @@
           <t>4702679581</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:10:08</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44357.5487037037</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8635,10 +8435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:09:39</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44357.54836805556</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8710,10 +8508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:08:58</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44357.54789351852</v>
       </c>
       <c r="I111" t="n">
         <v>49</v>
@@ -8785,10 +8581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:08:13</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44357.54737268519</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8866,10 +8660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:06:28</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44357.54615740741</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8943,10 +8735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:06:21</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44357.54607638889</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -9020,10 +8810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:06:16</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44357.54601851852</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9095,10 +8883,8 @@
           <t>4702662692</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:06:05</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44357.54589120371</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9170,10 +8956,8 @@
           <t>4702655433</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:04:41</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44357.54491898148</v>
       </c>
       <c r="I117" t="n">
         <v>5</v>
@@ -9245,10 +9029,8 @@
           <t>4702648856</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:03:49</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44357.54431712963</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9320,10 +9102,8 @@
           <t>4702637933</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:03:31</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44357.5441087963</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9399,10 +9179,8 @@
           <t>4702648040</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:03:22</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44357.54400462963</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9474,10 +9252,8 @@
           <t>4702642485</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:03:05</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44357.54380787037</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9545,10 +9321,8 @@
           <t>4702647275</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:02:57</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44357.54371527778</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9624,10 +9398,8 @@
           <t>4702637933</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-06-10 13:01:48</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44357.54291666667</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -9691,10 +9463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:59:51</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44357.5415625</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9762,10 +9532,8 @@
           <t>4702613292</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:57:49</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44357.54015046296</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9841,10 +9609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:56:27</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44357.53920138889</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9908,10 +9674,8 @@
           <t>4702604316</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:55:56</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44357.53884259259</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9975,10 +9739,8 @@
           <t>4702407607</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:54:11</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44357.53762731481</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -10054,10 +9816,8 @@
           <t>4702407607</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:54:08</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44357.53759259259</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -10121,10 +9881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:53:48</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44357.53736111111</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10196,10 +9954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:53:38</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44357.53724537037</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10280,10 +10036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:53:17</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44357.53700231481</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10351,10 +10105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:49:35</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44357.53443287037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10418,10 +10170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:49:07</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44357.5341087963</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10493,10 +10243,8 @@
           <t>4702369549</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:48:02</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44357.53335648148</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10572,10 +10320,8 @@
           <t>4702559171</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:47:46</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44357.53317129629</v>
       </c>
       <c r="I136" t="n">
         <v>5</v>
@@ -10643,10 +10389,8 @@
           <t>4702286410</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:47:33</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44357.53302083333</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10718,10 +10462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:46:43</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44357.53244212963</v>
       </c>
       <c r="I138" t="n">
         <v>58</v>
@@ -10793,10 +10535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:45:07</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44357.53133101852</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10875,10 +10615,8 @@
           <t>4702407607</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:43:54</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44357.53048611111</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10946,10 +10684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:42:14</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44357.52932870371</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -11017,10 +10753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:41:08</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44357.52856481481</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -11096,10 +10830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:37:53</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44357.52630787037</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11171,10 +10903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:35:40</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44357.52476851852</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11242,10 +10972,8 @@
           <t>4702485867</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:34:29</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44357.52394675926</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11321,10 +11049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:34:20</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44357.52384259259</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11392,10 +11118,8 @@
           <t>4702286410</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:33:39</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44357.52336805555</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11473,10 +11197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:31:03</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44357.5215625</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11549,10 +11271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:30:43</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44357.52133101852</v>
       </c>
       <c r="I149" t="n">
         <v>6</v>
@@ -11630,10 +11350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:28:56</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44357.52009259259</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11693,10 +11411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:28:32</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44357.51981481481</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11785,10 +11501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:27:49</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44357.51931712963</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11860,10 +11574,8 @@
           <t>4702443384</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:27:41</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44357.51922453703</v>
       </c>
       <c r="I153" t="n">
         <v>6</v>
@@ -11935,10 +11647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:27:27</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44357.5190625</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -12015,10 +11725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:26:59</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44357.51873842593</v>
       </c>
       <c r="I155" t="n">
         <v>41</v>
@@ -12086,10 +11794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:26:33</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44357.5184375</v>
       </c>
       <c r="I156" t="n">
         <v>7</v>
@@ -12161,10 +11867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:23:41</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44357.51644675926</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -12232,10 +11936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:23:09</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44357.51607638889</v>
       </c>
       <c r="I158" t="n">
         <v>5</v>
@@ -12304,10 +12006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:22:47</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44357.51582175926</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12379,10 +12079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:21:49</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44357.51515046296</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12446,10 +12144,8 @@
           <t>4702412207</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:21:31</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44357.51494212963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12525,10 +12221,8 @@
           <t>4702404917</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:21:05</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44357.51464120371</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12604,10 +12298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:20:55</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44357.51452546296</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12684,10 +12376,8 @@
           <t>4702407607</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:20:33</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44357.51427083334</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12763,10 +12453,8 @@
           <t>4702402865</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:20:00</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44357.51388888889</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12842,10 +12530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:18:42</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44357.51298611111</v>
       </c>
       <c r="I166" t="n">
         <v>50</v>
@@ -12921,10 +12607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:18:40</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44357.51296296297</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12995,10 +12679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:16:54</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44357.51173611111</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -13066,10 +12748,8 @@
           <t>4702379678</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:16:22</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44357.51136574074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -13146,10 +12826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:14:54</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44357.51034722223</v>
       </c>
       <c r="I170" t="n">
         <v>9</v>
@@ -13217,10 +12895,8 @@
           <t>4702327437</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:14:40</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44357.51018518519</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13288,10 +12964,8 @@
           <t>4702369549</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:14:36</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44357.51013888889</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13359,10 +13033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:13:47</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44357.50957175926</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13431,10 +13103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:13:21</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44357.50927083333</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13494,10 +13164,8 @@
           <t>4702363056</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:12:48</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44357.50888888889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13561,10 +13229,8 @@
           <t>4702327437</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:11:22</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44357.50789351852</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13640,10 +13306,8 @@
           <t>4702343880</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:10:43</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44357.50744212963</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13719,10 +13383,8 @@
           <t>4702343880</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:10:05</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44357.50700231481</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13798,10 +13460,8 @@
           <t>4702343824</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:10:04</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44357.50699074074</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13877,10 +13537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:09:35</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44357.50665509259</v>
       </c>
       <c r="I180" t="n">
         <v>6</v>
@@ -13944,10 +13602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:08:48</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44357.50611111111</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -14023,10 +13679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:08:45</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44357.50607638889</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -14102,10 +13756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:08:08</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44357.50564814815</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -14184,10 +13836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:06:48</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44357.50472222222</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14259,10 +13909,8 @@
           <t>4702327437</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:06:33</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44357.50454861111</v>
       </c>
       <c r="I185" t="n">
         <v>4</v>
@@ -14326,10 +13974,8 @@
           <t>4702327358</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:06:30</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44357.50451388889</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14405,10 +14051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:05:44</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44357.50398148148</v>
       </c>
       <c r="I187" t="n">
         <v>5</v>
@@ -14468,10 +14112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:04:30</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44357.503125</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14535,10 +14177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:03:44</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44357.50259259259</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14615,10 +14255,8 @@
           <t>4702307714</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:02:14</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44357.50155092592</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14678,10 +14316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:01:52</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44357.50129629629</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14753,10 +14389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:01:45</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44357.50121527778</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -14824,10 +14458,8 @@
           <t>4702212725</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:01:45</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44357.50121527778</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14903,10 +14535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:01:23</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44357.50096064815</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14970,10 +14600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:00:23</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44357.5002662037</v>
       </c>
       <c r="I195" t="n">
         <v>11</v>
@@ -15037,10 +14665,8 @@
           <t>4702296292</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:00:17</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44357.50019675926</v>
       </c>
       <c r="I196" t="n">
         <v>2</v>
@@ -15112,10 +14738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:00:09</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44357.50010416667</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15191,10 +14815,8 @@
           <t>4702212725</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-06-10 12:00:00</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44357.5</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15271,10 +14893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:59:33</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44357.4996875</v>
       </c>
       <c r="I199" t="n">
         <v>4</v>
@@ -15338,10 +14958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:59:29</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44357.49964120371</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15405,10 +15023,8 @@
           <t>4702288703</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:59:24</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44357.49958333333</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15476,10 +15092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:59:21</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44357.49954861111</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15543,10 +15157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:59:17</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44357.49950231481</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -15610,10 +15222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:59:12</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44357.49944444445</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15677,10 +15287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:59:07</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44357.49938657408</v>
       </c>
       <c r="I205" t="n">
         <v>234</v>
@@ -15744,10 +15352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:59:00</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44357.49930555555</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -15811,10 +15417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:58:50</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44357.49918981481</v>
       </c>
       <c r="I207" t="n">
         <v>3</v>
@@ -15878,10 +15482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:58:44</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44357.49912037037</v>
       </c>
       <c r="I208" t="n">
         <v>2</v>
@@ -15949,10 +15551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:58:43</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44357.4991087963</v>
       </c>
       <c r="I209" t="n">
         <v>2</v>
@@ -16020,10 +15620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:58:41</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44357.49908564815</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -16087,10 +15685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:58:38</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44357.49905092592</v>
       </c>
       <c r="I211" t="n">
         <v>4</v>
@@ -16167,10 +15763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:58:21</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44357.49885416667</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -16234,10 +15828,8 @@
           <t>4702291066</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:58:14</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44357.49877314815</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16313,10 +15905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:58:05</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44357.49866898148</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16380,10 +15970,8 @@
           <t>4702282582</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:58:01</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44357.49862268518</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16459,10 +16047,8 @@
           <t>4702286410</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:57:58</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44357.49858796296</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16522,10 +16108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:57:55</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44357.49855324074</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16589,10 +16173,8 @@
           <t>4702290436</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:57:51</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44357.49850694444</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16652,10 +16234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:57:45</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44357.4984375</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16719,10 +16299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:57:39</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44357.49836805555</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16786,10 +16364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:57:01</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44357.49792824074</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16857,10 +16433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:56:38</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44357.49766203704</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16930,10 +16504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:55:20</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44357.49675925926</v>
       </c>
       <c r="I223" t="n">
         <v>76</v>
@@ -17007,10 +16579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:55:18</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44357.49673611111</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17086,10 +16656,8 @@
           <t>4702272111</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:55:18</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44357.49673611111</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -17157,10 +16725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:55:06</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44357.49659722222</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17234,10 +16800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:54:37</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44357.49626157407</v>
       </c>
       <c r="I227" t="n">
         <v>16</v>
@@ -17309,10 +16873,8 @@
           <t>4702212725</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:54:23</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44357.49609953703</v>
       </c>
       <c r="I228" t="n">
         <v>6</v>
@@ -17388,10 +16950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:54:19</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44357.49605324074</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17467,10 +17027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:53:43</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44357.49563657407</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17538,10 +17096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:53:33</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44357.49552083333</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17609,10 +17165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:53:31</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44357.49549768519</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17684,10 +17238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:52:42</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44357.49493055556</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17770,10 +17322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:52:26</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44357.49474537037</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17849,10 +17399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:52:20</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44357.49467592593</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17932,10 +17480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:52:13</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44357.49459490741</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -18028,10 +17574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:52:05</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44357.49450231482</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -18107,10 +17651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:51:58</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44357.49442129629</v>
       </c>
       <c r="I238" t="n">
         <v>31</v>
@@ -18178,10 +17720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:51:23</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44357.4940162037</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18249,10 +17789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:51:18</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44357.49395833333</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18328,10 +17866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:50:39</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44357.49350694445</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18391,10 +17927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:50:35</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44357.49346064815</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18473,10 +18007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:50:26</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44357.49335648148</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18540,10 +18072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:50:14</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44357.49321759259</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18614,10 +18144,8 @@
           <t>4702212725</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:50:13</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44357.49320601852</v>
       </c>
       <c r="I245" t="n">
         <v>4</v>
@@ -18685,10 +18213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:50:11</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44357.49318287037</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18760,10 +18286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:49:50</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44357.49293981482</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18831,10 +18355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:49:48</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44357.49291666667</v>
       </c>
       <c r="I248" t="n">
         <v>2</v>
@@ -18898,10 +18420,8 @@
           <t>4702238605</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:49:19</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44357.49258101852</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18976,10 +18496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:49:04</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44357.49240740741</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -19059,10 +18577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:49:00</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44357.49236111111</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -19134,10 +18650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:48:59</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44357.49234953704</v>
       </c>
       <c r="I252" t="n">
         <v>3</v>
@@ -19197,10 +18711,8 @@
           <t>4702212725</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:48:58</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44357.49233796296</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19268,10 +18780,8 @@
           <t>4702237968</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:48:55</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44357.49230324074</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19335,10 +18845,8 @@
           <t>4702245181</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:48:01</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44357.49167824074</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19410,10 +18918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:47:36</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44357.49138888889</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19489,10 +18995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:47:26</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44357.49127314815</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19560,10 +19064,8 @@
           <t>4702212725</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:47:21</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44357.49121527778</v>
       </c>
       <c r="I258" t="n">
         <v>5</v>
@@ -19642,10 +19144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:47:18</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44357.49118055555</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19721,10 +19221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:47:13</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44357.49112268518</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -19800,10 +19298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:47:07</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44357.49105324074</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -19879,10 +19375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:47:05</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44357.49103009259</v>
       </c>
       <c r="I262" t="n">
         <v>32</v>
@@ -19954,10 +19448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:46:56</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44357.49092592593</v>
       </c>
       <c r="I263" t="n">
         <v>4</v>
@@ -20033,10 +19525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:46:55</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44357.49091435185</v>
       </c>
       <c r="I264" t="n">
         <v>92</v>
@@ -20108,10 +19598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:46:48</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44357.49083333334</v>
       </c>
       <c r="I265" t="n">
         <v>5</v>
@@ -20187,10 +19675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:46:43</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44357.49077546296</v>
       </c>
       <c r="I266" t="n">
         <v>19</v>
@@ -20266,10 +19752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:46:29</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44357.49061342593</v>
       </c>
       <c r="I267" t="n">
         <v>3</v>
@@ -20345,10 +19829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:46:08</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44357.49037037037</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20420,10 +19902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:46:05</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44357.49033564814</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20491,10 +19971,8 @@
           <t>4702193057</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:46:04</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44357.49032407408</v>
       </c>
       <c r="I270" t="n">
         <v>3</v>
@@ -20560,10 +20038,8 @@
           <t>4702149184</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:45:46</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44357.49011574074</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20635,10 +20111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:45:44</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44357.49009259259</v>
       </c>
       <c r="I272" t="n">
         <v>54</v>
@@ -20712,10 +20186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:45:40</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44357.4900462963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20783,10 +20255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:45:34</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44357.48997685185</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20854,10 +20324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:45:09</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44357.4896875</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20936,10 +20404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:44:54</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44357.48951388889</v>
       </c>
       <c r="I276" t="n">
         <v>27</v>
@@ -21007,10 +20473,8 @@
           <t>4702193057</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:44:53</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44357.48950231481</v>
       </c>
       <c r="I277" t="n">
         <v>3</v>
@@ -21078,10 +20542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:44:50</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44357.48946759259</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -21156,10 +20618,8 @@
           <t>4702220181</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:43:55</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44357.48883101852</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -21226,10 +20686,8 @@
           <t>4702218820</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:43:46</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44357.48872685185</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -21292,10 +20750,8 @@
           <t>4702193057</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:43:44</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44357.4887037037</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21363,10 +20819,8 @@
           <t>4702209448</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:43:27</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44357.48850694444</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21442,10 +20896,8 @@
           <t>4702217981</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:43:12</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44357.48833333333</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21513,10 +20965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:59</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44357.48818287037</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21580,10 +21030,8 @@
           <t>4702212725</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:47</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44357.48804398148</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21656,10 +21104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:44</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44357.48800925926</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21723,10 +21169,8 @@
           <t>4702208018</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:33</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44357.48788194444</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21797,10 +21241,8 @@
           <t>4702216829</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:25</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44357.48778935185</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21876,10 +21318,8 @@
           <t>4702212066</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:19</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44357.48771990741</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21954,10 +21394,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:16</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44357.48768518519</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -22033,10 +21471,8 @@
           <t>4702211915</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:14</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44357.48766203703</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -22115,10 +21551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:05</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44357.48755787037</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22187,10 +21621,8 @@
           <t>4702207331</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:42:05</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44357.48755787037</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -22262,10 +21694,8 @@
           <t>4702211453</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:41:54</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44357.48743055556</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22341,10 +21771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:41:43</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44357.48730324074</v>
       </c>
       <c r="I295" t="n">
         <v>10</v>
@@ -22420,10 +21848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:41:26</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44357.48710648148</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22499,10 +21925,8 @@
           <t>4702205997</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:41:14</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44357.48696759259</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22566,10 +21990,8 @@
           <t>4702215133</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:41:14</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44357.48696759259</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22645,10 +22067,8 @@
           <t>4702205758</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:41:05</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44357.48686342593</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22716,10 +22136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:41:03</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44357.48684027778</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22795,10 +22213,8 @@
           <t>4702193057</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:40:59</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44357.48679398148</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22870,10 +22286,8 @@
           <t>4702199087</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:40:17</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44357.48630787037</v>
       </c>
       <c r="I302" t="n">
         <v>2</v>
@@ -22945,10 +22359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:40:13</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44357.48626157407</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -23016,10 +22428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:39:53</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44357.48603009259</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -23100,10 +22510,8 @@
           <t>4702203019</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:39:50</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44357.48599537037</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -23174,10 +22582,8 @@
           <t>4702161179</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:39:48</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44357.48597222222</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -23256,10 +22662,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:39:44</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44357.48592592592</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -23337,10 +22741,8 @@
           <t>4702190944</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:39:44</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44357.48592592592</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23412,10 +22814,8 @@
           <t>4702193057</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:39:19</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44357.48563657407</v>
       </c>
       <c r="I309" t="n">
         <v>4</v>
@@ -23483,10 +22883,8 @@
           <t>4702197486</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:39:14</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44357.4855787037</v>
       </c>
       <c r="I310" t="n">
         <v>4</v>
@@ -23556,10 +22954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:39:06</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44357.48548611111</v>
       </c>
       <c r="I311" t="n">
         <v>3</v>
@@ -23631,10 +23027,8 @@
           <t>4702192722</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:39:05</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44357.48547453704</v>
       </c>
       <c r="I312" t="n">
         <v>3</v>
@@ -23706,10 +23100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:46</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44357.48525462963</v>
       </c>
       <c r="I313" t="n">
         <v>80</v>
@@ -23785,10 +23177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:42</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44357.48520833333</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23864,10 +23254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:39</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44357.48517361111</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23935,10 +23323,8 @@
           <t>4702201250</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:39</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44357.48517361111</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -24006,10 +23392,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:20</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44357.4849537037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -24081,10 +23465,8 @@
           <t>4702200780</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:18</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44357.48493055555</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -24157,10 +23539,8 @@
           <t>4702200652</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:13</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44357.48487268519</v>
       </c>
       <c r="I319" t="n">
         <v>7</v>
@@ -24236,10 +23616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:04</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44357.48476851852</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -24303,10 +23681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:03</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44357.48475694445</v>
       </c>
       <c r="I321" t="n">
         <v>12</v>
@@ -24368,10 +23744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:38:00</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44357.48472222222</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24439,10 +23813,8 @@
           <t>4702190944</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:37:54</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44357.48465277778</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24506,10 +23878,8 @@
           <t>4702195426</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:37:50</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44357.48460648148</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24577,10 +23947,8 @@
           <t>4702174933</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:37:44</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44357.48453703704</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24648,10 +24016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:37:12</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44357.48416666667</v>
       </c>
       <c r="I326" t="n">
         <v>2</v>
@@ -24722,10 +24088,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:37:02</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44357.48405092592</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24801,10 +24165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:36:53</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44357.48394675926</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24879,10 +24241,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:36:40</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44357.4837962963</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24958,10 +24318,8 @@
           <t>4702179020</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:36:38</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44357.48377314815</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -25029,10 +24387,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:36:29</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44357.48366898148</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -25108,10 +24464,8 @@
           <t>4702173110</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:36:20</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44357.48356481481</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -25175,10 +24529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:36:15</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44357.48350694445</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -25254,10 +24606,8 @@
           <t>4702183075</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:36:15</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44357.48350694445</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -25325,10 +24675,8 @@
           <t>4702178118</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:36:01</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44357.48334490741</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25396,10 +24744,8 @@
           <t>4702180514</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:35:46</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44357.4831712963</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25470,10 +24816,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:35:46</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44357.4831712963</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25549,10 +24893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:35:40</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44357.48310185185</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -25624,10 +24966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:35:40</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44357.48310185185</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25698,10 +25038,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:35:38</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44357.48307870371</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25782,10 +25120,8 @@
           <t>4702186251</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:35:10</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44357.48275462963</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25856,10 +25192,8 @@
           <t>4702161179</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:35:07</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44357.48271990741</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25935,10 +25269,8 @@
           <t>4702174933</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:56</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44357.48259259259</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -26006,10 +25338,8 @@
           <t>4702161179</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:49</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44357.48251157408</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -26082,10 +25412,8 @@
           <t>4702185742</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:48</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44357.4825</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -26164,10 +25492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:25</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44357.4822337963</v>
       </c>
       <c r="I346" t="n">
         <v>6</v>
@@ -26243,10 +25569,8 @@
           <t>4702175796</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:25</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44357.4822337963</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -26310,10 +25634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:21</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44357.4821875</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -26381,10 +25703,8 @@
           <t>4702148159</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:17</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44357.48214120371</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26460,10 +25780,8 @@
           <t>4702173110</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:15</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44357.48211805556</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26534,10 +25852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:12</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44357.48208333334</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26601,10 +25917,8 @@
           <t>4702173110</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:12</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44357.48208333334</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26680,10 +25994,8 @@
           <t>4702162280</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:34:12</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44357.48208333334</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26743,10 +26055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:33:57</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44357.48190972222</v>
       </c>
       <c r="I354" t="n">
         <v>39</v>
@@ -26827,10 +26137,8 @@
           <t>4702172092</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:33:56</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44357.48189814815</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26898,10 +26206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:33:50</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44357.48182870371</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26978,10 +26284,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:33:37</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44357.48167824074</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -27060,10 +26364,8 @@
           <t>4702161179</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:33:32</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44357.48162037037</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -27144,10 +26446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:33:18</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44357.48145833334</v>
       </c>
       <c r="I359" t="n">
         <v>19</v>
@@ -27215,10 +26515,8 @@
           <t>4702163654</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:59</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44357.48123842593</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -27290,10 +26588,8 @@
           <t>4702173110</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:58</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44357.48122685185</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27357,10 +26653,8 @@
           <t>4702149184</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:55</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44357.48119212963</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27432,10 +26726,8 @@
           <t>4702161179</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:53</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44357.48116898148</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27511,10 +26803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:48</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44357.48111111111</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27588,10 +26878,8 @@
           <t>4702172092</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:42</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44357.48104166667</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27663,10 +26951,8 @@
           <t>4702172634</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:37</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44357.4809837963</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27742,10 +27028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:30</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44357.48090277778</v>
       </c>
       <c r="I367" t="n">
         <v>236</v>
@@ -27813,10 +27097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:30</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44357.48090277778</v>
       </c>
       <c r="I368" t="n">
         <v>18</v>
@@ -27887,10 +27169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:26</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44357.48085648148</v>
       </c>
       <c r="I369" t="n">
         <v>6</v>
@@ -27965,10 +27245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:26</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44357.48085648148</v>
       </c>
       <c r="I370" t="n">
         <v>18</v>
@@ -28044,10 +27322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:23</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44357.48082175926</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -28123,10 +27399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:20</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44357.48078703704</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -28194,10 +27468,8 @@
           <t>4702172092</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:14</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44357.4807175926</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -28273,10 +27545,8 @@
           <t>4702162280</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:32:01</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44357.48056712963</v>
       </c>
       <c r="I374" t="n">
         <v>6</v>
@@ -28352,10 +27622,8 @@
           <t>4702148159</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:59</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44357.48054398148</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -28435,10 +27703,8 @@
           <t>4702152434</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:48</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44357.48041666667</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -28502,10 +27768,8 @@
           <t>4702166444</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44357.48037037037</v>
       </c>
       <c r="I377" t="n">
         <v>6</v>
@@ -28581,10 +27845,8 @@
           <t>4702158635</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:37</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44357.48028935185</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28654,10 +27916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:34</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44357.48025462963</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -28726,10 +27986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:34</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44357.48025462963</v>
       </c>
       <c r="I380" t="n">
         <v>64</v>
@@ -28801,10 +28059,8 @@
           <t>4702148159</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:33</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44357.48024305556</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28870,10 +28126,8 @@
           <t>4702152434</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:31</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44357.4802199074</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28945,10 +28199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:28</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44357.48018518519</v>
       </c>
       <c r="I383" t="n">
         <v>3</v>
@@ -29012,10 +28264,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:24</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44357.48013888889</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -29079,10 +28329,8 @@
           <t>4702170750</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:19</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44357.48008101852</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -29149,10 +28397,8 @@
           <t>4702148159</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:19</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44357.48008101852</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -29227,10 +28473,8 @@
           <t>4702161179</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:18</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44357.48006944444</v>
       </c>
       <c r="I387" t="n">
         <v>3</v>
@@ -29306,10 +28550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:15</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44357.48003472222</v>
       </c>
       <c r="I388" t="n">
         <v>3</v>
@@ -29373,10 +28615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:15</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44357.48003472222</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -29448,10 +28688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:10</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44357.47997685185</v>
       </c>
       <c r="I390" t="n">
         <v>11</v>
@@ -29527,10 +28765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:10</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44357.47997685185</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -29606,10 +28842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:10</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44357.47997685185</v>
       </c>
       <c r="I392" t="n">
         <v>40</v>
@@ -29680,10 +28914,8 @@
           <t>4702160985</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:10</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44357.47997685185</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29759,10 +28991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:07</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44357.47994212963</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29838,10 +29068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:03</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44357.47989583333</v>
       </c>
       <c r="I395" t="n">
         <v>31</v>
@@ -29909,10 +29137,8 @@
           <t>4702160720</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:31:00</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44357.47986111111</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29980,10 +29206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:30:54</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44357.47979166666</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -30059,10 +29283,8 @@
           <t>4702159470</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:30:39</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44357.47961805556</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -30137,10 +29359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:30:37</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44357.47959490741</v>
       </c>
       <c r="I399" t="n">
         <v>24</v>
@@ -30209,10 +29429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:30:36</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44357.47958333333</v>
       </c>
       <c r="I400" t="n">
         <v>10</v>
@@ -30280,10 +29498,8 @@
           <t>4702148159</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:30:33</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44357.47954861111</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -30350,10 +29566,8 @@
           <t>4702159470</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:30:25</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44357.47945601852</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -30417,10 +29631,8 @@
           <t>4702148159</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:30:17</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44357.47936342593</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30492,10 +29704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:30:13</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44357.47931712963</v>
       </c>
       <c r="I404" t="n">
         <v>30</v>
@@ -30563,10 +29773,8 @@
           <t>4702149184</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:56</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44357.47912037037</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30647,10 +29855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:54</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44357.47909722223</v>
       </c>
       <c r="I406" t="n">
         <v>25</v>
@@ -30726,10 +29932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:52</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44357.47907407407</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30808,10 +30012,8 @@
           <t>4702158635</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:50</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44357.47905092593</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30883,10 +30085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:46</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44357.47900462963</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30954,10 +30154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:38</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44357.47891203704</v>
       </c>
       <c r="I410" t="n">
         <v>2</v>
@@ -31033,10 +30231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:32</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44357.47884259259</v>
       </c>
       <c r="I411" t="n">
         <v>3</v>
@@ -31100,10 +30296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:25</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44357.47876157407</v>
       </c>
       <c r="I412" t="n">
         <v>5</v>
@@ -31175,10 +30369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:23</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44357.47873842593</v>
       </c>
       <c r="I413" t="n">
         <v>3</v>
@@ -31242,10 +30434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:22</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44357.47872685185</v>
       </c>
       <c r="I414" t="n">
         <v>30</v>
@@ -31320,10 +30510,8 @@
           <t>4702148159</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:16</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44357.47865740741</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -31395,10 +30583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:15</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44357.47864583333</v>
       </c>
       <c r="I416" t="n">
         <v>3</v>
@@ -31474,10 +30660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:11</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44357.47859953704</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31545,10 +30729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:08</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44357.47856481482</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31620,10 +30802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:06</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44357.47854166666</v>
       </c>
       <c r="I419" t="n">
         <v>3</v>
@@ -31691,10 +30871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:29:03</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44357.47850694445</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31773,10 +30951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:59</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44357.47846064815</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31844,10 +31020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:55</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44357.47841435186</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31919,10 +31093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:53</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44357.4783912037</v>
       </c>
       <c r="I423" t="n">
         <v>7</v>
@@ -31990,10 +31162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:50</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44357.47835648148</v>
       </c>
       <c r="I424" t="n">
         <v>5</v>
@@ -32061,10 +31231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:50</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44357.47835648148</v>
       </c>
       <c r="I425" t="n">
         <v>3</v>
@@ -32129,10 +31297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:44</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44357.47828703704</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -32200,10 +31366,8 @@
           <t>4702156901</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:39</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44357.47822916666</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -32275,10 +31439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:39</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44357.47822916666</v>
       </c>
       <c r="I428" t="n">
         <v>3</v>
@@ -32346,10 +31508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:38</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44357.47821759259</v>
       </c>
       <c r="I429" t="n">
         <v>35</v>
@@ -32413,10 +31573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:38</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44357.47821759259</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -32488,10 +31646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:32</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44357.47814814815</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -32555,10 +31711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:25</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44357.47806712963</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32630,10 +31784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:25</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44357.47806712963</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32710,10 +31862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:23</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44357.47804398148</v>
       </c>
       <c r="I434" t="n">
         <v>3</v>
@@ -32791,10 +31941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:19</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44357.47799768519</v>
       </c>
       <c r="I435" t="n">
         <v>9</v>
@@ -32870,10 +32018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:18</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44357.47798611111</v>
       </c>
       <c r="I436" t="n">
         <v>2</v>
@@ -32947,10 +32093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:13</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44357.47792824074</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -33018,10 +32162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:12</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44357.47791666666</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -33091,10 +32233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:09</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44357.47788194445</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -33172,10 +32312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:09</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44357.47788194445</v>
       </c>
       <c r="I440" t="n">
         <v>20</v>
@@ -33251,10 +32389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:06</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44357.47784722222</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -33330,10 +32466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:04</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44357.47782407407</v>
       </c>
       <c r="I442" t="n">
         <v>3</v>
@@ -33401,10 +32535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:28:03</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44357.4778125</v>
       </c>
       <c r="I443" t="n">
         <v>22</v>
@@ -33476,10 +32608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:57</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44357.47774305556</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33555,10 +32685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:55</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44357.47771990741</v>
       </c>
       <c r="I445" t="n">
         <v>9</v>
@@ -33634,10 +32762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:53</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44357.47769675926</v>
       </c>
       <c r="I446" t="n">
         <v>51</v>
@@ -33707,10 +32833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:52</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44357.47768518519</v>
       </c>
       <c r="I447" t="n">
         <v>20</v>
@@ -33782,10 +32906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:51</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44357.47767361111</v>
       </c>
       <c r="I448" t="n">
         <v>3</v>
@@ -33850,10 +32972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:50</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44357.47766203704</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33917,10 +33037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:47</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44357.47762731482</v>
       </c>
       <c r="I450" t="n">
         <v>6</v>
@@ -33995,10 +33113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:43</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44357.47758101852</v>
       </c>
       <c r="I451" t="n">
         <v>6</v>
@@ -34062,10 +33178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:40</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44357.47754629629</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -34141,10 +33255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:39</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44357.47753472222</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -34212,10 +33324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:39</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44357.47753472222</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -34291,10 +33401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:32</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44357.4774537037</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -34366,10 +33474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:29</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44357.47741898148</v>
       </c>
       <c r="I456" t="n">
         <v>74</v>
@@ -34441,10 +33547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:28</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44357.47740740741</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -34508,10 +33612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:27</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44357.47739583333</v>
       </c>
       <c r="I458" t="n">
         <v>3</v>
@@ -34583,10 +33685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:16</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44357.47726851852</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34650,10 +33750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:15</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44357.47725694445</v>
       </c>
       <c r="I460" t="n">
         <v>6</v>
@@ -34729,10 +33827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:12</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44357.47722222222</v>
       </c>
       <c r="I461" t="n">
         <v>5</v>
@@ -34808,10 +33904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:12</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44357.47722222222</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34879,10 +33973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:12</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44357.47722222222</v>
       </c>
       <c r="I463" t="n">
         <v>4</v>
@@ -34958,10 +34050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:07</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44357.47716435185</v>
       </c>
       <c r="I464" t="n">
         <v>4</v>
@@ -35037,10 +34127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:27:04</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44357.47712962963</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -35112,10 +34200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:59</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44357.47707175926</v>
       </c>
       <c r="I466" t="n">
         <v>8</v>
@@ -35191,10 +34277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:50</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44357.47696759259</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -35262,10 +34346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:47</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44357.47693287037</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -35333,10 +34415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:44</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44357.47689814815</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -35400,10 +34480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:43</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44357.47688657408</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -35467,10 +34545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:43</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44357.47688657408</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35542,10 +34618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:42</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44357.476875</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -35621,10 +34695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:39</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44357.47684027778</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -35700,10 +34772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:36</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44357.47680555555</v>
       </c>
       <c r="I474" t="n">
         <v>15</v>
@@ -35767,10 +34837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:34</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44357.47678240741</v>
       </c>
       <c r="I475" t="n">
         <v>7</v>
@@ -35838,10 +34906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:24</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44357.47666666667</v>
       </c>
       <c r="I476" t="n">
         <v>12</v>
@@ -35909,10 +34975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:20</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44357.47662037037</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35988,10 +35052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:19</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44357.4766087963</v>
       </c>
       <c r="I478" t="n">
         <v>2</v>
@@ -36067,10 +35129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:19</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44357.4766087963</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -36138,10 +35198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:19</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44357.4766087963</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -36213,10 +35271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:17</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44357.47658564815</v>
       </c>
       <c r="I481" t="n">
         <v>73</v>
@@ -36280,10 +35336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:14</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44357.47655092592</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -36347,10 +35401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:14</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44357.47655092592</v>
       </c>
       <c r="I483" t="n">
         <v>99</v>
@@ -36426,10 +35478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:02</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44357.47641203704</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -36501,10 +35551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:26:00</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44357.47638888889</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36580,10 +35628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:25:54</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44357.47631944445</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36655,10 +35701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-06-10 11:25:54</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44357.47631944445</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
